--- a/Documento de Diseño.xlsx
+++ b/Documento de Diseño.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Enzo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Enzo\FACULTAD\ourIWBTGproyect\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="131">
   <si>
     <t>Planilla del Documento de Diseño</t>
   </si>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>Vision General del Juego</t>
-  </si>
-  <si>
-    <t>debe establecer la vision y el enfoque de juego que guiara el proyectoo hasta el final del proceso. El resumen debe mencionar los mas interasante, las ventajas y lo original del juego. ¿Por qué las personas jugarian este juego? La estructura de los parrafos es similar a un ensayo, una introduccion debe de abarcar todos los aspectos importantes mientras quelos parrafos subsecuentes deben detallar lo mencionado en la introduccion. Al final, la conclucion debe al lector entusiasmado por jugar el juego.</t>
   </si>
   <si>
     <t xml:space="preserve">Mecanica del Juego </t>
@@ -402,13 +399,40 @@
   </si>
   <si>
     <t>Enlistar los objetos del personaje.</t>
+  </si>
+  <si>
+    <t>Si el personaje no es controlable por el jugador, describir su propósito para el juego y/o para el jugador.</t>
+  </si>
+  <si>
+    <t>Los enemigos obstaculizan el progreso del jugador, pueden ser máquinas, otros personajes, monstruos, etc.</t>
+  </si>
+  <si>
+    <t>El nombre del enemigo.</t>
+  </si>
+  <si>
+    <t>Describir detalladamente el físico del enemigo así como también su comportamiento.</t>
+  </si>
+  <si>
+    <t>¿Cuándo aparece este enemigo en el juego?</t>
+  </si>
+  <si>
+    <t>Fotografía o dibujo conceptual del enemigo.</t>
+  </si>
+  <si>
+    <t>Enlistar las habilidades del enemigo.</t>
+  </si>
+  <si>
+    <t>Enlistar las armas del enemigo.</t>
+  </si>
+  <si>
+    <t>Debe establecer la vision y el enfoque de juego que guiara el proyectoo hasta el final del proceso. El resumen debe mencionar los mas interasante, las ventajas y lo original del juego. ¿Por qué las personas jugarian este juego? La estructura de los parrafos es similar a un ensayo, una introduccion debe de abarcar todos los aspectos importantes mientras quelos parrafos subsecuentes deben detallar lo mencionado en la introduccion. Al final, la conclucion debe al lector entusiasmado por jugar el juego.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,16 +440,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -433,18 +486,221 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Título" xfId="1" builtinId="15"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -724,590 +980,700 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86:B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="1" max="1" width="34" customWidth="1"/>
+    <col min="2" max="2" width="176.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B1" s="16"/>
+    </row>
+    <row r="2" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="18"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B15" s="11"/>
+    </row>
+    <row r="16" spans="1:2" ht="47.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B16" s="12"/>
+    </row>
+    <row r="17" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B17" s="11"/>
+    </row>
+    <row r="18" spans="1:2" ht="43.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" s="12"/>
+    </row>
+    <row r="19" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B19" s="14"/>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20" s="12"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B22" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B23" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B23" t="s">
+    </row>
+    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B24" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B24" t="s">
+    </row>
+    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B25" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B25" t="s">
+    </row>
+    <row r="26" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B26" s="14"/>
+    </row>
+    <row r="27" spans="1:2" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B27" s="12"/>
+    </row>
+    <row r="28" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="11" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B28" s="11"/>
+    </row>
+    <row r="29" spans="1:2" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B29" s="12"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B30" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="34" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" s="11"/>
+    </row>
+    <row r="35" spans="1:2" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B35" s="12"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="B36" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="37" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B39" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="11"/>
+    </row>
+    <row r="47" spans="1:2" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" s="13"/>
+    </row>
+    <row r="48" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="11"/>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" s="9"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B38" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B51" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B41" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>58</v>
-      </c>
-      <c r="B44" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>59</v>
-      </c>
-      <c r="B45" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>62</v>
-      </c>
-      <c r="B50" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="B57" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" s="14"/>
+    </row>
+    <row r="60" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B60" s="9"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B51" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>63</v>
-      </c>
-      <c r="B52" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>2</v>
-      </c>
-      <c r="B53" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="B62" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B55" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>65</v>
-      </c>
-      <c r="B56" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="B66" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="11" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>56</v>
-      </c>
-      <c r="B67" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="B68" s="11"/>
+    </row>
+    <row r="69" spans="1:2" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B69" s="9"/>
+    </row>
+    <row r="70" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="11" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="B70" s="11"/>
+    </row>
+    <row r="71" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B71" s="9"/>
+    </row>
+    <row r="72" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="11" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="B72" s="11"/>
+    </row>
+    <row r="73" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B73" s="9"/>
+    </row>
+    <row r="74" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="11" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="B74" s="11"/>
+    </row>
+    <row r="75" spans="1:2" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B75" s="9"/>
+    </row>
+    <row r="76" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="11" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="B76" s="11"/>
+    </row>
+    <row r="77" spans="1:2" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B77" s="9"/>
+    </row>
+    <row r="78" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="11" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="B78" s="11"/>
+    </row>
+    <row r="79" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B79" s="9"/>
+    </row>
+    <row r="80" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="11" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="B80" s="11"/>
+    </row>
+    <row r="81" spans="1:2" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B81" s="10"/>
+    </row>
+    <row r="82" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="11" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="B82" s="11"/>
+    </row>
+    <row r="83" spans="1:2" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" s="9"/>
+    </row>
+    <row r="84" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="B84" s="11"/>
+    </row>
+    <row r="85" spans="1:2" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" s="9"/>
+    </row>
+    <row r="86" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="11" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="B86" s="11"/>
+    </row>
+    <row r="87" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" s="9"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="B88" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B90" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>83</v>
-      </c>
-      <c r="B90" t="s">
-        <v>86</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A83:B83"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>